--- a/database_design/db_exp.xlsx
+++ b/database_design/db_exp.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grid_elements_api\database_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\grid_elements_api\database_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="7" r:id="rId1"/>
     <sheet name="states" sheetId="8" r:id="rId2"/>
     <sheet name="voltage_levels" sheetId="5" r:id="rId3"/>
     <sheet name="owners" sheetId="2" r:id="rId4"/>
-    <sheet name="substations" sheetId="1" r:id="rId5"/>
-    <sheet name="conductor_types" sheetId="3" r:id="rId6"/>
-    <sheet name="element_types" sheetId="4" r:id="rId7"/>
+    <sheet name="element_types" sheetId="4" r:id="rId5"/>
+    <sheet name="substations" sheetId="1" r:id="rId6"/>
+    <sheet name="conductor_types" sheetId="3" r:id="rId7"/>
     <sheet name="400kVLines" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">owners!$A$1:$D$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">owners!$A$1:$D$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="304">
   <si>
     <t>ACBIL</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Bhadrawati</t>
   </si>
   <si>
-    <t>Bhadrawati HVDC</t>
-  </si>
-  <si>
     <t>Bhilai</t>
   </si>
   <si>
@@ -408,15 +405,9 @@
     <t>Boisar</t>
   </si>
   <si>
-    <t>IB-Nasik</t>
-  </si>
-  <si>
     <t>EMCO</t>
   </si>
   <si>
-    <t>Ramagundam</t>
-  </si>
-  <si>
     <t>Bhatapara</t>
   </si>
   <si>
@@ -474,12 +465,6 @@
     <t xml:space="preserve">New koyna </t>
   </si>
   <si>
-    <t>Tamnar-PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Koyna </t>
-  </si>
-  <si>
     <t>Mapusa</t>
   </si>
   <si>
@@ -489,63 +474,30 @@
     <t>Essar_Mahan</t>
   </si>
   <si>
-    <t>New Koyna</t>
-  </si>
-  <si>
     <t>DGEN</t>
   </si>
   <si>
     <t>Nagothane</t>
   </si>
   <si>
-    <t>India Bharath</t>
-  </si>
-  <si>
-    <t>Jharsuguda</t>
-  </si>
-  <si>
-    <t>Rourkela</t>
-  </si>
-  <si>
-    <t>Sterlite</t>
-  </si>
-  <si>
     <t>GMR-CG</t>
   </si>
   <si>
     <t>JP-Nigrie</t>
   </si>
   <si>
-    <t>Indira sagar</t>
-  </si>
-  <si>
     <t>Astha</t>
   </si>
   <si>
-    <t>RAPP</t>
-  </si>
-  <si>
-    <t>Ranchi</t>
-  </si>
-  <si>
     <t>Solapur-NTPC</t>
   </si>
   <si>
     <t>Vindhyachal-V</t>
   </si>
   <si>
-    <t>Rihand</t>
-  </si>
-  <si>
     <t>Mouda</t>
   </si>
   <si>
-    <t>Bhinmal</t>
-  </si>
-  <si>
-    <t>Kankroli</t>
-  </si>
-  <si>
     <t>WRTS-1</t>
   </si>
   <si>
@@ -897,13 +849,103 @@
     <t>JTCL</t>
   </si>
   <si>
-    <t>ERTS-1/WRTS-1</t>
-  </si>
-  <si>
-    <t>NRTS-1/WRTS-2</t>
-  </si>
-  <si>
     <t>SRTCL</t>
+  </si>
+  <si>
+    <t>PGCIL</t>
+  </si>
+  <si>
+    <t>DIL</t>
+  </si>
+  <si>
+    <t>JPTL</t>
+  </si>
+  <si>
+    <t>JPVL</t>
+  </si>
+  <si>
+    <t>Rattan India</t>
+  </si>
+  <si>
+    <t>SPGCL</t>
+  </si>
+  <si>
+    <t>SSNL</t>
+  </si>
+  <si>
+    <t>Essar</t>
+  </si>
+  <si>
+    <t>GSECL</t>
+  </si>
+  <si>
+    <t>CSEPTCL</t>
+  </si>
+  <si>
+    <t>Electricity Dep of DNH</t>
+  </si>
+  <si>
+    <t>Electricity Dep of DD</t>
+  </si>
+  <si>
+    <t>DNH</t>
+  </si>
+  <si>
+    <t>OPTCL</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>UPPTCL</t>
+  </si>
+  <si>
+    <t>RSPTCL</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>voltages_id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>Bina-NHPTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champa </t>
+  </si>
+  <si>
+    <t>Dhariwal-MS</t>
+  </si>
+  <si>
+    <t>Gwalior</t>
+  </si>
+  <si>
+    <t>Tamnar</t>
+  </si>
+  <si>
+    <t>Bilaspur</t>
+  </si>
+  <si>
+    <t>Jabalpur-PS</t>
+  </si>
+  <si>
+    <t>Koradi(III)</t>
+  </si>
+  <si>
+    <t>Solapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadodora-PS </t>
   </si>
 </sst>
 </file>
@@ -947,12 +989,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,10 +1286,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1309,10 +1352,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1459,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1491,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1523,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1531,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1547,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1555,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1571,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1579,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1587,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1603,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1568,7 +1611,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,7 +1619,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="M34" s="2"/>
     </row>
@@ -1585,7 +1628,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="N35" s="2"/>
     </row>
@@ -1594,7 +1637,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M36" s="2"/>
     </row>
@@ -1603,7 +1646,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="M37" s="2"/>
     </row>
@@ -1612,7 +1655,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="N38" s="2"/>
     </row>
@@ -1626,1051 +1669,1098 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>765</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>233</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>234</v>
+      <c r="B8" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>236</v>
+      <c r="B9" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>235</v>
+      <c r="B10" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>237</v>
+      <c r="B11" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="I2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>175</v>
+      <c r="B3" t="s">
+        <v>159</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="I3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>193</v>
+      <c r="B4" t="s">
+        <v>177</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="I4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>201</v>
+      <c r="B5" t="s">
+        <v>185</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="I5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>174</v>
+      <c r="B6" t="s">
+        <v>158</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="I6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>183</v>
+      <c r="B7" t="s">
+        <v>167</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="I7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>181</v>
+      <c r="B8" t="s">
+        <v>135</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="I8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
+      <c r="B9" t="s">
+        <v>165</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="I9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>180</v>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="I10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
+      <c r="B11" t="s">
+        <v>281</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="I11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>152</v>
+      <c r="B12" t="s">
+        <v>164</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="I12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>195</v>
+      <c r="B13" t="s">
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="I13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>184</v>
+      <c r="B14" t="s">
+        <v>286</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="I14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>209</v>
+      <c r="B15" t="s">
+        <v>146</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="I15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>208</v>
+      <c r="B16" t="s">
+        <v>179</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="I16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>202</v>
+      <c r="B17" t="s">
+        <v>273</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="I17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>173</v>
+      <c r="B18" t="s">
+        <v>284</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="I18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>188</v>
+      <c r="B19" t="s">
+        <v>283</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="I19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>158</v>
+      <c r="B20" t="s">
+        <v>282</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="I20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>178</v>
+      <c r="B21" t="s">
+        <v>168</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="I21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
+      <c r="B22" t="s">
+        <v>193</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="I22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>205</v>
+      <c r="B23" t="s">
+        <v>192</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="I23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
+      <c r="B24" t="s">
+        <v>186</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="I24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>196</v>
+      <c r="B25" t="s">
+        <v>279</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="I25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>190</v>
+      <c r="B26" t="s">
+        <v>157</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="I26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>144</v>
+      <c r="B27" t="s">
+        <v>172</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="I27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>185</v>
+      <c r="B28" t="s">
+        <v>148</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="I28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>46</v>
+      <c r="B29" t="s">
+        <v>162</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="I29" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>197</v>
+      <c r="B30" t="s">
+        <v>34</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="I30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>62</v>
+      <c r="B31" t="s">
+        <v>280</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="I31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>187</v>
+      <c r="B32" t="s">
+        <v>189</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="I32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>210</v>
+      <c r="B33" t="s">
+        <v>36</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="I33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>207</v>
+      <c r="B34" t="s">
+        <v>180</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="I34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>69</v>
+      <c r="B35" t="s">
+        <v>174</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="I35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>172</v>
+      <c r="B36" t="s">
+        <v>141</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="I36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>182</v>
+      <c r="B37" t="s">
+        <v>169</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="I37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>171</v>
+      <c r="B38" t="s">
+        <v>45</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="I38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>130</v>
+      <c r="B39" t="s">
+        <v>274</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="I39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>200</v>
+      <c r="B40" t="s">
+        <v>275</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="I40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>211</v>
+      <c r="B41" t="s">
+        <v>270</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="I41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>73</v>
+      <c r="B42" t="s">
+        <v>181</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="I42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>192</v>
+      <c r="B43" t="s">
+        <v>61</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="I43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>203</v>
+      <c r="B44" t="s">
+        <v>171</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="I44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>86</v>
+      <c r="B45" t="s">
+        <v>194</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="I45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>198</v>
+      <c r="B46" t="s">
+        <v>140</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="I46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>191</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="I47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>94</v>
+      <c r="B48" t="s">
+        <v>68</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="I48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>206</v>
+      <c r="B49" t="s">
+        <v>269</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="I49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>179</v>
+      <c r="B50" t="s">
+        <v>156</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="I50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>199</v>
+      <c r="B51" t="s">
+        <v>166</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="I51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>186</v>
+      <c r="B52" t="s">
+        <v>155</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="I52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>102</v>
+      <c r="B53" t="s">
+        <v>127</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="I53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>204</v>
+      <c r="B54" t="s">
+        <v>184</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="I54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>194</v>
+      <c r="B55" t="s">
+        <v>195</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="I55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>189</v>
+      <c r="B56" t="s">
+        <v>72</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="I56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>176</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="I57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>170</v>
+      <c r="B58" t="s">
+        <v>285</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="I58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>177</v>
+      <c r="B59" t="s">
+        <v>272</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="I59" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>289</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I60" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I62" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I64" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
-        <v>170</v>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2679,918 +2769,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A170"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -3606,82 +2784,2216 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F185"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>76</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>89</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>99</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>103</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>104</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>105</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>129</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>117</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>107</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>109</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>110</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>119</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>111</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>112</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>113</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>299</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>294</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>295</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>297</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>300</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>301</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>78</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>120</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>139</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>87</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>89</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>92</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>302</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>298</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>100</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>303</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>110</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>111</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +5005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/database_design/db_exp.xlsx
+++ b/database_design/db_exp.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="7" r:id="rId1"/>
     <sheet name="states" sheetId="8" r:id="rId2"/>
     <sheet name="voltage_levels" sheetId="5" r:id="rId3"/>
-    <sheet name="owners" sheetId="2" r:id="rId4"/>
-    <sheet name="element_types" sheetId="4" r:id="rId5"/>
-    <sheet name="substations" sheetId="1" r:id="rId6"/>
-    <sheet name="conductor_types" sheetId="3" r:id="rId7"/>
+    <sheet name="element_types" sheetId="4" r:id="rId4"/>
+    <sheet name="conductor_types" sheetId="3" r:id="rId5"/>
+    <sheet name="owners" sheetId="2" r:id="rId6"/>
+    <sheet name="substations" sheetId="1" r:id="rId7"/>
     <sheet name="400kVLines" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">owners!$A$1:$D$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">owners!$A$1:$D$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="306">
   <si>
     <t>ACBIL</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vadodora-PS </t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>not yet</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1285,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,986 +1787,152 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>279</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>285</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>276</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>289</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>277</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>271</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>278</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>170</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2770,96 +1942,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>216</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2868,6 +2007,1242 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" t="s">
+        <v>305</v>
+      </c>
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+      <c r="D71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" t="s">
+        <v>305</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F185"/>
   <sheetViews>
@@ -4935,77 +5310,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/database_design/db_exp.xlsx
+++ b/database_design/db_exp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="7" r:id="rId1"/>
@@ -2011,7 +2011,7 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
